--- a/Equipment.xlsx
+++ b/Equipment.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="17">
   <si>
     <t>№ п/п</t>
   </si>
@@ -56,6 +56,12 @@
     <t>PM METER</t>
   </si>
   <si>
+    <t>Томск</t>
+  </si>
+  <si>
+    <t>ТОМСК. ОБЛ Бериевский</t>
+  </si>
+  <si>
     <t>KILOMETER</t>
   </si>
   <si>
@@ -72,12 +78,6 @@
   </si>
   <si>
     <t>PM METER AUX</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Убыло</t>
   </si>
 </sst>
 </file>
@@ -107,10 +107,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -575,19 +574,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,7 +595,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -720,11 +719,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1071,10 +1071,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1083,7 +1083,7 @@
     <col min="3" max="3" width="12.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="13.2222222222222" customWidth="1"/>
     <col min="5" max="5" width="13.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="16.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="27.4444444444444" customWidth="1"/>
     <col min="7" max="7" width="12.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1130,7 +1130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1143,8 +1143,14 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1155,10 +1161,16 @@
         <v>12793443</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1171,8 +1183,14 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1185,8 +1203,14 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1197,7 +1221,13 @@
         <v>10744739</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1211,13 +1241,19 @@
         <v>10738623</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1230,8 +1266,14 @@
       <c r="D9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1242,10 +1284,16 @@
         <v>10728379</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1258,8 +1306,14 @@
       <c r="D11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1272,61 +1326,91 @@
       <c r="D12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>11567499</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>11567499</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>11567499</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>11292865</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1334,52 +1418,70 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>11292865</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>11292865</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C19">
         <v>10728382</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C20">
         <v>10728382</v>
@@ -1387,108 +1489,10 @@
       <c r="D20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21">
-        <v>11323459</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22">
-        <v>11323459</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23">
-        <v>10856476</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24">
-        <v>10307536</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25">
-        <v>11676514</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26">
-        <v>13248965</v>
-      </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27">
-        <v>11064148</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
     </row>
